--- a/results/mp/logistic/toy-spam/confidence/168/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/168/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,118 +40,136 @@
     <t>name</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>pool</t>
   </si>
   <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
     <t>poorly</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>return</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
     <t>paid</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
     <t>missing</t>
   </si>
   <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>water</t>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>half</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
     <t>light</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>piece</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
+    <t>nothing</t>
+  </si>
+  <si>
     <t>hold</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>minutes</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>way</t>
   </si>
   <si>
     <t>item</t>
@@ -160,70 +178,67 @@
     <t>money</t>
   </si>
   <si>
+    <t>back</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>nothing</t>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>never</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>used</t>
+    <t>could</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>made</t>
+    <t>use</t>
   </si>
   <si>
     <t>two</t>
   </si>
   <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>even</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
     <t>son</t>
   </si>
   <si>
-    <t>2</t>
+    <t>like</t>
   </si>
   <si>
     <t>buy</t>
@@ -232,10 +247,7 @@
     <t>really</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>bought</t>
   </si>
   <si>
     <t>one</t>
@@ -247,55 +259,61 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>excellent</t>
+    <t>expansion</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>highly</t>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>love</t>
   </si>
   <si>
     <t>elf</t>
   </si>
   <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>lego</t>
   </si>
   <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>ages</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>perfect</t>
+    <t>book</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>fun</t>
   </si>
   <si>
     <t>friends</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>fun</t>
   </si>
   <si>
     <t>recommend</t>
@@ -662,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -670,10 +688,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -731,13 +749,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9594594594594594</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C3">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -749,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K3">
-        <v>0.6615384615384615</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -773,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -781,13 +799,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9473684210526315</v>
+        <v>0.9594594594594594</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -799,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K4">
-        <v>0.5660377358490566</v>
+        <v>0.5844155844155844</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -823,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -831,13 +849,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9436619718309859</v>
+        <v>0.9577464788732394</v>
       </c>
       <c r="C5">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -849,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5">
         <v>0.5625</v>
@@ -881,13 +899,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9428571428571428</v>
+        <v>0.9318181818181818</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -899,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K6">
-        <v>0.5483870967741935</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="L6">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="M6">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -923,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -931,13 +949,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9347826086956522</v>
+        <v>0.912621359223301</v>
       </c>
       <c r="C7">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="D7">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -949,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K7">
-        <v>0.5194805194805194</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -973,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -981,13 +999,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9301075268817204</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="C8">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D8">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -999,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K8">
-        <v>0.4375</v>
+        <v>0.4623655913978494</v>
       </c>
       <c r="L8">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M8">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1023,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1031,13 +1049,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9077669902912622</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C9">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="D9">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1049,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K9">
-        <v>0.4149377593360996</v>
+        <v>0.4045643153526971</v>
       </c>
       <c r="L9">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M9">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1073,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1081,13 +1099,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8709677419354839</v>
+        <v>0.8857142857142857</v>
       </c>
       <c r="C10">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1099,19 +1117,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K10">
-        <v>0.3959827833572453</v>
+        <v>0.3916786226685796</v>
       </c>
       <c r="L10">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M10">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1123,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1131,13 +1149,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8315789473684211</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="C11">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D11">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1149,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K11">
-        <v>0.3363914373088685</v>
+        <v>0.390625</v>
       </c>
       <c r="L11">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="M11">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1173,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>217</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1181,13 +1199,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8181818181818182</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="C12">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D12">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1202,16 +1220,16 @@
         <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K12">
-        <v>0.3333333333333333</v>
+        <v>0.3883792048929663</v>
       </c>
       <c r="L12">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="M12">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1223,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>46</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1231,13 +1249,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8125</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C13">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1249,19 +1267,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K13">
-        <v>0.3142857142857143</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L13">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M13">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1273,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1281,13 +1299,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7894736842105263</v>
+        <v>0.796875</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1299,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K14">
-        <v>0.3059885151763741</v>
+        <v>0.3484848484848485</v>
       </c>
       <c r="L14">
-        <v>373</v>
+        <v>23</v>
       </c>
       <c r="M14">
-        <v>374</v>
+        <v>23</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1320,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>846</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1331,13 +1349,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7890625</v>
+        <v>0.7421875</v>
       </c>
       <c r="C15">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D15">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1349,19 +1367,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K15">
-        <v>0.2478632478632479</v>
+        <v>0.3012048192771085</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1373,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>88</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1381,13 +1399,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7037037037037037</v>
+        <v>0.7380952380952381</v>
       </c>
       <c r="C16">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1399,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K16">
-        <v>0.2402234636871508</v>
+        <v>0.2933442892358258</v>
       </c>
       <c r="L16">
-        <v>86</v>
+        <v>357</v>
       </c>
       <c r="M16">
-        <v>87</v>
+        <v>360</v>
       </c>
       <c r="N16">
         <v>0.99</v>
@@ -1423,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>272</v>
+        <v>860</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1431,13 +1449,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6721311475409836</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="C17">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1449,31 +1467,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K17">
-        <v>0.2228915662650602</v>
+        <v>0.2262569832402235</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>129</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1481,13 +1499,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6507936507936508</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="C18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1499,19 +1517,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K18">
-        <v>0.1798941798941799</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1523,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>155</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1531,13 +1549,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6296296296296297</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1549,31 +1567,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K19">
-        <v>0.1697009102730819</v>
+        <v>0.1753246753246753</v>
       </c>
       <c r="L19">
-        <v>261</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>264</v>
+        <v>27</v>
       </c>
       <c r="N19">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1277</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1581,13 +1599,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6222222222222222</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1599,19 +1617,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K20">
-        <v>0.1491228070175439</v>
+        <v>0.1747888239116309</v>
       </c>
       <c r="L20">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="M20">
-        <v>171</v>
+        <v>271</v>
       </c>
       <c r="N20">
         <v>0.99</v>
@@ -1623,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>970</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1631,13 +1649,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6190476190476191</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C21">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1649,31 +1667,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K21">
-        <v>0.1258741258741259</v>
+        <v>0.1432337434094903</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="N21">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O21">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>250</v>
+        <v>975</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1681,13 +1699,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6181818181818182</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C22">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D22">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1699,31 +1717,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K22">
-        <v>0.04959785522788204</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="N22">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="O22">
-        <v>0.14</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>709</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1731,13 +1749,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5971563981042654</v>
+        <v>0.6208530805687204</v>
       </c>
       <c r="C23">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D23">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1749,7 +1767,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K23">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="L23">
+        <v>33</v>
+      </c>
+      <c r="M23">
+        <v>35</v>
+      </c>
+      <c r="N23">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1757,13 +1799,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5714285714285714</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1775,7 +1817,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K24">
+        <v>0.05473965287049399</v>
+      </c>
+      <c r="L24">
+        <v>41</v>
+      </c>
+      <c r="M24">
+        <v>44</v>
+      </c>
+      <c r="N24">
+        <v>0.93</v>
+      </c>
+      <c r="O24">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>708</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1783,13 +1849,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5208333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1801,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1809,13 +1875,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.504950495049505</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C26">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1827,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1835,13 +1901,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4948453608247423</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C27">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1853,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1861,13 +1927,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4814814814814815</v>
+        <v>0.5051546391752577</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D28">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1879,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1887,13 +1953,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4642857142857143</v>
+        <v>0.4840579710144928</v>
       </c>
       <c r="C29">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1905,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>30</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1913,13 +1979,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4492753623188406</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C30">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1931,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>190</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1939,13 +2005,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4492753623188406</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="C31">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D31">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1957,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1965,13 +2031,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4351851851851852</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="C32">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D32">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1983,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1991,13 +2057,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4310344827586207</v>
+        <v>0.4537037037037037</v>
       </c>
       <c r="C33">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D33">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2009,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2017,13 +2083,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4107142857142857</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2035,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2043,13 +2109,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4096385542168675</v>
+        <v>0.4455445544554456</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="D35">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2061,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>49</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2069,13 +2135,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4024390243902439</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C36">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D36">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2087,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2095,13 +2161,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3829113924050633</v>
+        <v>0.4268292682926829</v>
       </c>
       <c r="C37">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="D37">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2113,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>195</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2121,13 +2187,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3378378378378378</v>
+        <v>0.4201680672268908</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D38">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2139,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2147,13 +2213,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3277310924369748</v>
+        <v>0.4189189189189189</v>
       </c>
       <c r="C39">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D39">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2165,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2173,13 +2239,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3243243243243243</v>
+        <v>0.390625</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2191,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2199,13 +2265,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2971014492753623</v>
+        <v>0.3829113924050633</v>
       </c>
       <c r="C41">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="D41">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2217,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2225,13 +2291,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2943037974683544</v>
+        <v>0.3626373626373626</v>
       </c>
       <c r="C42">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="D42">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2243,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>223</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2251,13 +2317,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2834645669291339</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="C43">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D43">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2269,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>91</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2277,13 +2343,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="C44">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D44">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2295,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2303,13 +2369,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.247191011235955</v>
+        <v>0.2921348314606741</v>
       </c>
       <c r="C45">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D45">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2321,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2329,25 +2395,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2417582417582418</v>
+        <v>0.288235294117647</v>
       </c>
       <c r="C46">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D46">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>69</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2355,25 +2421,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2312775330396476</v>
+        <v>0.2763636363636364</v>
       </c>
       <c r="C47">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="D47">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>349</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2381,13 +2447,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.21875</v>
+        <v>0.2468354430379747</v>
       </c>
       <c r="C48">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="D48">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2399,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>100</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2407,25 +2473,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2185792349726776</v>
+        <v>0.2446043165467626</v>
       </c>
       <c r="C49">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D49">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>143</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2433,13 +2499,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2046783625730994</v>
+        <v>0.2362204724409449</v>
       </c>
       <c r="C50">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D50">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2451,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>136</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2459,13 +2525,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1965811965811966</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="C51">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D51">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2477,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>94</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2485,25 +2551,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.187221396731055</v>
+        <v>0.2057142857142857</v>
       </c>
       <c r="C52">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="D52">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="E52">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>547</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2511,13 +2577,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1666666666666667</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C53">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D53">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2529,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>160</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2537,25 +2603,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1635514018691589</v>
+        <v>0.2038690476190476</v>
       </c>
       <c r="C54">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="D54">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>179</v>
+        <v>535</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2563,13 +2629,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1542857142857143</v>
+        <v>0.1953125</v>
       </c>
       <c r="C55">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D55">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2581,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>148</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2589,25 +2655,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1478260869565217</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C56">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D56">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E56">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="F56">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>294</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2615,25 +2681,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1424050632911392</v>
+        <v>0.1689189189189189</v>
       </c>
       <c r="C57">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D57">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E57">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>271</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2641,25 +2707,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1384615384615385</v>
+        <v>0.1519823788546255</v>
       </c>
       <c r="C58">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D58">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E58">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>168</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2667,25 +2733,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1227436823104693</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="C59">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D59">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E59">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>243</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2693,13 +2759,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1068702290076336</v>
+        <v>0.1464968152866242</v>
       </c>
       <c r="C60">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="D60">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2711,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>585</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2719,13 +2785,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1041095890410959</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="C61">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D61">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2737,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>327</v>
+        <v>300</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2745,25 +2811,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.09324009324009325</v>
+        <v>0.1315068493150685</v>
       </c>
       <c r="C62">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D62">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E62">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>389</v>
+        <v>317</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2771,25 +2837,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.09027777777777778</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="C63">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D63">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E63">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>393</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2797,13 +2863,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.08646616541353383</v>
+        <v>0.1139896373056995</v>
       </c>
       <c r="C64">
+        <v>22</v>
+      </c>
+      <c r="D64">
         <v>23</v>
-      </c>
-      <c r="D64">
-        <v>24</v>
       </c>
       <c r="E64">
         <v>0.04</v>
@@ -2815,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>243</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2823,25 +2889,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.07082152974504249</v>
+        <v>0.1105990783410138</v>
       </c>
       <c r="C65">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="D65">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="E65">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="F65">
-        <v>0.9299999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>328</v>
+        <v>579</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2849,13 +2915,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.05781584582441113</v>
+        <v>0.1007194244604317</v>
       </c>
       <c r="C66">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E66">
         <v>0.07000000000000001</v>
@@ -2867,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>440</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2875,25 +2941,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.05607476635514019</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="C67">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D67">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E67">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F67">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2901,25 +2967,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05463576158940397</v>
+        <v>0.07943925233644859</v>
       </c>
       <c r="C68">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D68">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E68">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="F68">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>571</v>
+        <v>394</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2927,25 +2993,129 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.02915082382762991</v>
+        <v>0.07641196013289037</v>
       </c>
       <c r="C69">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D69">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E69">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="F69">
-        <v>0.8200000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>766</v>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
+        <v>0.06760563380281689</v>
+      </c>
+      <c r="C70">
+        <v>24</v>
+      </c>
+      <c r="D70">
+        <v>24</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>0.04721030042918455</v>
+      </c>
+      <c r="C71">
+        <v>22</v>
+      </c>
+      <c r="D71">
+        <v>25</v>
+      </c>
+      <c r="E71">
+        <v>0.12</v>
+      </c>
+      <c r="F71">
+        <v>0.88</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <v>0.04382470119521913</v>
+      </c>
+      <c r="C72">
+        <v>22</v>
+      </c>
+      <c r="D72">
+        <v>24</v>
+      </c>
+      <c r="E72">
+        <v>0.08</v>
+      </c>
+      <c r="F72">
+        <v>0.92</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <v>0.04076433121019108</v>
+      </c>
+      <c r="C73">
+        <v>32</v>
+      </c>
+      <c r="D73">
+        <v>41</v>
+      </c>
+      <c r="E73">
+        <v>0.22</v>
+      </c>
+      <c r="F73">
+        <v>0.78</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>753</v>
       </c>
     </row>
   </sheetData>
